--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Cd163</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H2">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I2">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J2">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N2">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O2">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P2">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q2">
-        <v>5.786750541161678</v>
+        <v>0.05130681878422223</v>
       </c>
       <c r="R2">
-        <v>5.786750541161678</v>
+        <v>0.4617613690580001</v>
       </c>
       <c r="S2">
-        <v>0.007749644242981295</v>
+        <v>4.49330902146604E-05</v>
       </c>
       <c r="T2">
-        <v>0.007749644242981295</v>
+        <v>4.49330902146604E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H3">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I3">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J3">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N3">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O3">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P3">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q3">
-        <v>6.876664191558799</v>
+        <v>0.06202614532044446</v>
       </c>
       <c r="R3">
-        <v>6.876664191558799</v>
+        <v>0.5582353078840001</v>
       </c>
       <c r="S3">
-        <v>0.009209261861896516</v>
+        <v>5.432077936993879E-05</v>
       </c>
       <c r="T3">
-        <v>0.009209261861896516</v>
+        <v>5.432077936993877E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H4">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I4">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J4">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N4">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O4">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P4">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q4">
-        <v>8.025791623762851</v>
+        <v>0.08419870175866669</v>
       </c>
       <c r="R4">
-        <v>8.025791623762851</v>
+        <v>0.7577883158280001</v>
       </c>
       <c r="S4">
-        <v>0.01074817886308528</v>
+        <v>7.373888991228765E-05</v>
       </c>
       <c r="T4">
-        <v>0.01074817886308528</v>
+        <v>7.373888991228765E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H5">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I5">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J5">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N5">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O5">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P5">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q5">
-        <v>1.161219407128875</v>
+        <v>0.01255151591066667</v>
       </c>
       <c r="R5">
-        <v>1.161219407128875</v>
+        <v>0.112963643196</v>
       </c>
       <c r="S5">
-        <v>0.00155511063234599</v>
+        <v>1.099226984071295E-05</v>
       </c>
       <c r="T5">
-        <v>0.00155511063234599</v>
+        <v>1.099226984071295E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.45144689333615</v>
+        <v>2.726732</v>
       </c>
       <c r="H6">
-        <v>5.45144689333615</v>
+        <v>8.180196</v>
       </c>
       <c r="I6">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J6">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N6">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O6">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P6">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q6">
-        <v>12.49093162200878</v>
+        <v>6.534734123118668</v>
       </c>
       <c r="R6">
-        <v>12.49093162200878</v>
+        <v>58.81260710806801</v>
       </c>
       <c r="S6">
-        <v>0.01672791589086557</v>
+        <v>0.005722939072051882</v>
       </c>
       <c r="T6">
-        <v>0.01672791589086557</v>
+        <v>0.005722939072051881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.45144689333615</v>
+        <v>2.726732</v>
       </c>
       <c r="H7">
-        <v>5.45144689333615</v>
+        <v>8.180196</v>
       </c>
       <c r="I7">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J7">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N7">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O7">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P7">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q7">
-        <v>14.84355366509955</v>
+        <v>7.900009744429334</v>
       </c>
       <c r="R7">
-        <v>14.84355366509955</v>
+        <v>71.10008769986401</v>
       </c>
       <c r="S7">
-        <v>0.01987855868123014</v>
+        <v>0.006918609630349948</v>
       </c>
       <c r="T7">
-        <v>0.01987855868123014</v>
+        <v>0.006918609630349947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.45144689333615</v>
+        <v>2.726732</v>
       </c>
       <c r="H8">
-        <v>5.45144689333615</v>
+        <v>8.180196</v>
       </c>
       <c r="I8">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J8">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N8">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O8">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P8">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q8">
-        <v>17.32399101565344</v>
+        <v>10.724035177832</v>
       </c>
       <c r="R8">
-        <v>17.32399101565344</v>
+        <v>96.51631660048801</v>
       </c>
       <c r="S8">
-        <v>0.02320037234799602</v>
+        <v>0.009391812853127016</v>
       </c>
       <c r="T8">
-        <v>0.02320037234799602</v>
+        <v>0.009391812853127016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.45144689333615</v>
+        <v>2.726732</v>
       </c>
       <c r="H9">
-        <v>5.45144689333615</v>
+        <v>8.180196</v>
       </c>
       <c r="I9">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J9">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N9">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O9">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P9">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q9">
-        <v>2.506538360246053</v>
+        <v>1.598633890424</v>
       </c>
       <c r="R9">
-        <v>2.506538360246053</v>
+        <v>14.387705013816</v>
       </c>
       <c r="S9">
-        <v>0.003356768264870308</v>
+        <v>0.001400039264190837</v>
       </c>
       <c r="T9">
-        <v>0.003356768264870308</v>
+        <v>0.001400039264190837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>78.3297865357876</v>
+        <v>20.85570133333333</v>
       </c>
       <c r="H10">
-        <v>78.3297865357876</v>
+        <v>62.567104</v>
       </c>
       <c r="I10">
-        <v>0.9075741892147289</v>
+        <v>0.1792328724349742</v>
       </c>
       <c r="J10">
-        <v>0.9075741892147289</v>
+        <v>0.1792328724349742</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N10">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O10">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P10">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q10">
-        <v>179.4774904220526</v>
+        <v>49.98161284809245</v>
       </c>
       <c r="R10">
-        <v>179.4774904220526</v>
+        <v>449.8345156328321</v>
       </c>
       <c r="S10">
-        <v>0.2403571210648339</v>
+        <v>0.04377251157634041</v>
       </c>
       <c r="T10">
-        <v>0.2403571210648339</v>
+        <v>0.04377251157634041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>78.3297865357876</v>
+        <v>20.85570133333333</v>
       </c>
       <c r="H11">
-        <v>78.3297865357876</v>
+        <v>62.567104</v>
       </c>
       <c r="I11">
-        <v>0.9075741892147289</v>
+        <v>0.1792328724349742</v>
       </c>
       <c r="J11">
-        <v>0.9075741892147289</v>
+        <v>0.1792328724349742</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N11">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O11">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P11">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q11">
-        <v>213.2814301907685</v>
+        <v>60.42406945759289</v>
       </c>
       <c r="R11">
-        <v>213.2814301907685</v>
+        <v>543.816625118336</v>
       </c>
       <c r="S11">
-        <v>0.2856275202906706</v>
+        <v>0.05291772572167057</v>
       </c>
       <c r="T11">
-        <v>0.2856275202906706</v>
+        <v>0.05291772572167057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>78.3297865357876</v>
+        <v>20.85570133333333</v>
       </c>
       <c r="H12">
-        <v>78.3297865357876</v>
+        <v>62.567104</v>
       </c>
       <c r="I12">
-        <v>0.9075741892147289</v>
+        <v>0.1792328724349742</v>
       </c>
       <c r="J12">
-        <v>0.9075741892147289</v>
+        <v>0.1792328724349742</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N12">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O12">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P12">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q12">
-        <v>248.9218999570215</v>
+        <v>82.02393002210134</v>
       </c>
       <c r="R12">
-        <v>248.9218999570215</v>
+        <v>738.2153701989121</v>
       </c>
       <c r="S12">
-        <v>0.3333574093495731</v>
+        <v>0.07183428508682857</v>
       </c>
       <c r="T12">
-        <v>0.3333574093495731</v>
+        <v>0.07183428508682857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,805 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>20.85570133333333</v>
+      </c>
+      <c r="H13">
+        <v>62.567104</v>
+      </c>
+      <c r="I13">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="J13">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5862820000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.758846</v>
+      </c>
+      <c r="O13">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="P13">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="Q13">
+        <v>12.22732228910933</v>
+      </c>
+      <c r="R13">
+        <v>110.045900601984</v>
+      </c>
+      <c r="S13">
+        <v>0.01070835005013469</v>
+      </c>
+      <c r="T13">
+        <v>0.01070835005013469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H14">
+        <v>28.213619</v>
+      </c>
+      <c r="I14">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J14">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.396544333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.189633000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2442214476712194</v>
+      </c>
+      <c r="P14">
+        <v>0.2442214476712194</v>
+      </c>
+      <c r="Q14">
+        <v>22.53839624575856</v>
+      </c>
+      <c r="R14">
+        <v>202.845566211827</v>
+      </c>
+      <c r="S14">
+        <v>0.01973850290862044</v>
+      </c>
+      <c r="T14">
+        <v>0.01973850290862044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H15">
+        <v>28.213619</v>
+      </c>
+      <c r="I15">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J15">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.897244666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.691734</v>
+      </c>
+      <c r="O15">
+        <v>0.2952456488743109</v>
+      </c>
+      <c r="P15">
+        <v>0.2952456488743109</v>
+      </c>
+      <c r="Q15">
+        <v>27.24725239170511</v>
+      </c>
+      <c r="R15">
+        <v>245.225271525346</v>
+      </c>
+      <c r="S15">
+        <v>0.0238623886420844</v>
+      </c>
+      <c r="T15">
+        <v>0.0238623886420844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>78.3297865357876</v>
-      </c>
-      <c r="H13">
-        <v>78.3297865357876</v>
-      </c>
-      <c r="I13">
-        <v>0.9075741892147289</v>
-      </c>
-      <c r="J13">
-        <v>0.9075741892147289</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.459793227245788</v>
-      </c>
-      <c r="N13">
-        <v>0.459793227245788</v>
-      </c>
-      <c r="O13">
-        <v>0.05314401740686759</v>
-      </c>
-      <c r="P13">
-        <v>0.05314401740686759</v>
-      </c>
-      <c r="Q13">
-        <v>36.01550534076346</v>
-      </c>
-      <c r="R13">
-        <v>36.01550534076346</v>
-      </c>
-      <c r="S13">
-        <v>0.04823213850965129</v>
-      </c>
-      <c r="T13">
-        <v>0.04823213850965129</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H16">
+        <v>28.213619</v>
+      </c>
+      <c r="I16">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J16">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.932926</v>
+      </c>
+      <c r="N16">
+        <v>11.798778</v>
+      </c>
+      <c r="O16">
+        <v>0.4007874454664563</v>
+      </c>
+      <c r="P16">
+        <v>0.4007874454664564</v>
+      </c>
+      <c r="Q16">
+        <v>36.98735857306467</v>
+      </c>
+      <c r="R16">
+        <v>332.886227157582</v>
+      </c>
+      <c r="S16">
+        <v>0.03239250374409471</v>
+      </c>
+      <c r="T16">
+        <v>0.03239250374409471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H17">
+        <v>28.213619</v>
+      </c>
+      <c r="I17">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J17">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5862820000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.758846</v>
+      </c>
+      <c r="O17">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="P17">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="Q17">
+        <v>5.513712324852667</v>
+      </c>
+      <c r="R17">
+        <v>49.62341092367401</v>
+      </c>
+      <c r="S17">
+        <v>0.004828756472940334</v>
+      </c>
+      <c r="T17">
+        <v>0.004828756472940334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H18">
+        <v>249.912384</v>
+      </c>
+      <c r="I18">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J18">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.396544333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.189633000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2442214476712194</v>
+      </c>
+      <c r="P18">
+        <v>0.2442214476712194</v>
+      </c>
+      <c r="Q18">
+        <v>199.6420359016747</v>
+      </c>
+      <c r="R18">
+        <v>1796.778323115072</v>
+      </c>
+      <c r="S18">
+        <v>0.1748409630995679</v>
+      </c>
+      <c r="T18">
+        <v>0.1748409630995679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H19">
+        <v>249.912384</v>
+      </c>
+      <c r="I19">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J19">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.897244666666667</v>
+      </c>
+      <c r="N19">
+        <v>8.691734</v>
+      </c>
+      <c r="O19">
+        <v>0.2952456488743109</v>
+      </c>
+      <c r="P19">
+        <v>0.2952456488743109</v>
+      </c>
+      <c r="Q19">
+        <v>241.3524405593173</v>
+      </c>
+      <c r="R19">
+        <v>2172.171965033856</v>
+      </c>
+      <c r="S19">
+        <v>0.2113697797321866</v>
+      </c>
+      <c r="T19">
+        <v>0.2113697797321866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H20">
+        <v>249.912384</v>
+      </c>
+      <c r="I20">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J20">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.932926</v>
+      </c>
+      <c r="N20">
+        <v>11.798778</v>
+      </c>
+      <c r="O20">
+        <v>0.4007874454664563</v>
+      </c>
+      <c r="P20">
+        <v>0.4007874454664564</v>
+      </c>
+      <c r="Q20">
+        <v>327.628970918528</v>
+      </c>
+      <c r="R20">
+        <v>2948.660738266752</v>
+      </c>
+      <c r="S20">
+        <v>0.2869283743576332</v>
+      </c>
+      <c r="T20">
+        <v>0.2869283743576332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H21">
+        <v>249.912384</v>
+      </c>
+      <c r="I21">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J21">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5862820000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.758846</v>
+      </c>
+      <c r="O21">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="P21">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="Q21">
+        <v>48.83971077209601</v>
+      </c>
+      <c r="R21">
+        <v>439.557396948864</v>
+      </c>
+      <c r="S21">
+        <v>0.04277246537950165</v>
+      </c>
+      <c r="T21">
+        <v>0.04277246537950165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.048407</v>
+      </c>
+      <c r="H22">
+        <v>0.145221</v>
+      </c>
+      <c r="I22">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J22">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.396544333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.189633000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.2442214476712194</v>
+      </c>
+      <c r="P22">
+        <v>0.2442214476712194</v>
+      </c>
+      <c r="Q22">
+        <v>0.1160095215436667</v>
+      </c>
+      <c r="R22">
+        <v>1.044085693893</v>
+      </c>
+      <c r="S22">
+        <v>0.0001015979244241148</v>
+      </c>
+      <c r="T22">
+        <v>0.0001015979244241148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.048407</v>
+      </c>
+      <c r="H23">
+        <v>0.145221</v>
+      </c>
+      <c r="I23">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J23">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.897244666666667</v>
+      </c>
+      <c r="N23">
+        <v>8.691734</v>
+      </c>
+      <c r="O23">
+        <v>0.2952456488743109</v>
+      </c>
+      <c r="P23">
+        <v>0.2952456488743109</v>
+      </c>
+      <c r="Q23">
+        <v>0.1402469225793334</v>
+      </c>
+      <c r="R23">
+        <v>1.262222303214</v>
+      </c>
+      <c r="S23">
+        <v>0.0001228243686494859</v>
+      </c>
+      <c r="T23">
+        <v>0.0001228243686494859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.048407</v>
+      </c>
+      <c r="H24">
+        <v>0.145221</v>
+      </c>
+      <c r="I24">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J24">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.932926</v>
+      </c>
+      <c r="N24">
+        <v>11.798778</v>
+      </c>
+      <c r="O24">
+        <v>0.4007874454664563</v>
+      </c>
+      <c r="P24">
+        <v>0.4007874454664564</v>
+      </c>
+      <c r="Q24">
+        <v>0.190381148882</v>
+      </c>
+      <c r="R24">
+        <v>1.713430339938</v>
+      </c>
+      <c r="S24">
+        <v>0.0001667305348605288</v>
+      </c>
+      <c r="T24">
+        <v>0.0001667305348605288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.048407</v>
+      </c>
+      <c r="H25">
+        <v>0.145221</v>
+      </c>
+      <c r="I25">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J25">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5862820000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.758846</v>
+      </c>
+      <c r="O25">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="P25">
+        <v>0.05974545798801324</v>
+      </c>
+      <c r="Q25">
+        <v>0.028380152774</v>
+      </c>
+      <c r="R25">
+        <v>0.255421374966</v>
+      </c>
+      <c r="S25">
+        <v>2.485455140501005E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.485455140501005E-05</v>
       </c>
     </row>
   </sheetData>
